--- a/data/3_basic_asset_classes__plus_sectors_unconstrained.xlsx
+++ b/data/3_basic_asset_classes__plus_sectors_unconstrained.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.efficient_frontier/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AB83254D-652A-415C-924D-81A9C09D9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A9F172B-FF0D-4769-A49A-CF300206A54B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{AB83254D-652A-415C-924D-81A9C09D9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD0933A-5F4F-4F0B-A0DB-AE3C8FF167A3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investments" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -158,21 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -183,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,6 +195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,14 +492,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,7 +513,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -521,197 +521,197 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.99999000000000005</v>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
         <v>0.1</v>
       </c>
     </row>

--- a/data/3_basic_asset_classes__plus_sectors_unconstrained.xlsx
+++ b/data/3_basic_asset_classes__plus_sectors_unconstrained.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.efficient_frontier/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{AB83254D-652A-415C-924D-81A9C09D9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD0933A-5F4F-4F0B-A0DB-AE3C8FF167A3}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{AB83254D-652A-415C-924D-81A9C09D9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FB10FC-1B36-4269-A44D-D46CFF6907BA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ticker</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>XLU</t>
+  </si>
+  <si>
+    <t>OILK</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,13 +174,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -489,10 +492,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,14 +708,25 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.1</v>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
